--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N2">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O2">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P2">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q2">
-        <v>0.00826616826</v>
+        <v>0.007172691372</v>
       </c>
       <c r="R2">
-        <v>0.07439551434000001</v>
+        <v>0.064554222348</v>
       </c>
       <c r="S2">
-        <v>5.325374068044857E-05</v>
+        <v>0.0004475559609063758</v>
       </c>
       <c r="T2">
-        <v>8.516914279490884E-05</v>
+        <v>0.0007154479885252046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.437724</v>
+      </c>
+      <c r="H3">
+        <v>1.313172</v>
+      </c>
+      <c r="I3">
+        <v>0.02046276855287852</v>
+      </c>
+      <c r="J3">
+        <v>0.02204588088728605</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1.25226</v>
-      </c>
-      <c r="H3">
-        <v>3.75678</v>
-      </c>
-      <c r="I3">
-        <v>0.05753803679167191</v>
-      </c>
-      <c r="J3">
-        <v>0.06158044274193954</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N3">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O3">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P3">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q3">
-        <v>0.02051994978</v>
+        <v>0.320770931922</v>
       </c>
       <c r="R3">
-        <v>0.18467954802</v>
+        <v>1.924625591532</v>
       </c>
       <c r="S3">
-        <v>0.000132197174070099</v>
+        <v>0.02001521259197215</v>
       </c>
       <c r="T3">
-        <v>0.0002114240211409849</v>
+        <v>0.02133043289876084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>37.45258</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O4">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P4">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q4">
-        <v>0.03907760813999999</v>
+        <v>0.2045701533577778</v>
       </c>
       <c r="R4">
-        <v>0.35169847326</v>
+        <v>1.84113138022</v>
       </c>
       <c r="S4">
-        <v>0.0002517525345291902</v>
+        <v>0.01276460770586253</v>
       </c>
       <c r="T4">
-        <v>0.0004026298864329132</v>
+        <v>0.02040507490723173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>37.45258</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N5">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O5">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P5">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q5">
-        <v>8.86332284199</v>
+        <v>9.148610379663333</v>
       </c>
       <c r="R5">
-        <v>53.17993705194</v>
+        <v>54.89166227798</v>
       </c>
       <c r="S5">
-        <v>0.05710083334239217</v>
+        <v>0.5708478027385935</v>
       </c>
       <c r="T5">
-        <v>0.06088121969157074</v>
+        <v>0.6083588018747524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.48419333333334</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H6">
-        <v>37.45258</v>
+        <v>5.390407</v>
       </c>
       <c r="I6">
-        <v>0.5736156831070853</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J6">
-        <v>0.6139157624955175</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N6">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O6">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P6">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q6">
-        <v>0.08240816019333334</v>
+        <v>0.02944300196811111</v>
       </c>
       <c r="R6">
-        <v>0.7416734417400002</v>
+        <v>0.264987017713</v>
       </c>
       <c r="S6">
-        <v>0.0005309041208518345</v>
+        <v>0.001837161304506534</v>
       </c>
       <c r="T6">
-        <v>0.000849079300373657</v>
+        <v>0.002936824609024699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H7">
-        <v>37.45258</v>
+        <v>5.390407</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N7">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O7">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P7">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q7">
-        <v>0.2045701533577778</v>
+        <v>1.316724600302833</v>
       </c>
       <c r="R7">
-        <v>1.84113138022</v>
+        <v>7.900347601817001</v>
       </c>
       <c r="S7">
-        <v>0.001317917268946893</v>
+        <v>0.08215994710689446</v>
       </c>
       <c r="T7">
-        <v>0.002107755861590093</v>
+        <v>0.08755876215035863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>4.608308</v>
       </c>
       <c r="H8">
-        <v>37.45258</v>
+        <v>9.216616</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03120566666666666</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N8">
-        <v>0.09361699999999999</v>
+        <v>0.049159</v>
       </c>
       <c r="O8">
-        <v>0.004375410573021653</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P8">
-        <v>0.006538275278730676</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q8">
-        <v>0.3895775757622222</v>
+        <v>0.07551327099066667</v>
       </c>
       <c r="R8">
-        <v>3.50619818186</v>
+        <v>0.453079625944</v>
       </c>
       <c r="S8">
-        <v>0.002509804124717779</v>
+        <v>0.004711817755235123</v>
       </c>
       <c r="T8">
-        <v>0.004013950253147536</v>
+        <v>0.00502143616998323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>4.608308</v>
       </c>
       <c r="H9">
-        <v>37.45258</v>
+        <v>9.216616</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0778615</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N9">
-        <v>14.155723</v>
+        <v>1.465631</v>
       </c>
       <c r="O9">
-        <v>0.9924014882387677</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P9">
-        <v>0.9886453714972628</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q9">
-        <v>88.36139135255668</v>
+        <v>3.377039531174</v>
       </c>
       <c r="R9">
-        <v>530.1683481153401</v>
+        <v>13.508158124696</v>
       </c>
       <c r="S9">
-        <v>0.5692570575925688</v>
+        <v>0.210717859448616</v>
       </c>
       <c r="T9">
-        <v>0.6069449770804063</v>
+        <v>0.1497095651914948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.405587666666666</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H10">
-        <v>4.216762999999999</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I10">
-        <v>0.06458303777058033</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J10">
-        <v>0.06912039897939969</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.006601</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N10">
-        <v>0.019803</v>
+        <v>0.049159</v>
       </c>
       <c r="O10">
-        <v>0.0009255397585646605</v>
+        <v>0.02187172081577483</v>
       </c>
       <c r="P10">
-        <v>0.001383055057785483</v>
+        <v>0.03245268321021395</v>
       </c>
       <c r="Q10">
-        <v>0.009278284187666665</v>
+        <v>0.03382487682688889</v>
       </c>
       <c r="R10">
-        <v>0.08350455768899999</v>
+        <v>0.304423891442</v>
       </c>
       <c r="S10">
-        <v>5.977416918555527E-05</v>
+        <v>0.002110578089264268</v>
       </c>
       <c r="T10">
-        <v>9.559731740460931E-05</v>
+        <v>0.003373899535449085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,675 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>2.064212666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.192638000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.09649803538741349</v>
+      </c>
+      <c r="J11">
+        <v>0.1039636542098684</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1.405587666666666</v>
-      </c>
-      <c r="H11">
-        <v>4.216762999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.06458303777058033</v>
-      </c>
-      <c r="J11">
-        <v>0.06912039897939969</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M11">
-        <v>0.01638633333333333</v>
+        <v>0.7328155000000001</v>
       </c>
       <c r="N11">
-        <v>0.049159</v>
+        <v>1.465631</v>
       </c>
       <c r="O11">
-        <v>0.00229756142964602</v>
+        <v>0.9781282791842253</v>
       </c>
       <c r="P11">
-        <v>0.003433298166221107</v>
+        <v>0.9675473167897861</v>
       </c>
       <c r="Q11">
-        <v>0.02303242803522222</v>
+        <v>1.512687037429667</v>
       </c>
       <c r="R11">
-        <v>0.207291852317</v>
+        <v>9.076122224578002</v>
       </c>
       <c r="S11">
-        <v>0.0001483834965910575</v>
+        <v>0.09438745729814924</v>
       </c>
       <c r="T11">
-        <v>0.0002373109390644442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.405587666666666</v>
-      </c>
-      <c r="H12">
-        <v>4.216762999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.06458303777058033</v>
-      </c>
-      <c r="J12">
-        <v>0.06912039897939969</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P12">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q12">
-        <v>0.04386230019677777</v>
-      </c>
-      <c r="R12">
-        <v>0.3947607017709999</v>
-      </c>
-      <c r="S12">
-        <v>0.000282577306299254</v>
-      </c>
-      <c r="T12">
-        <v>0.0004519281959030101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.405587666666666</v>
-      </c>
-      <c r="H13">
-        <v>4.216762999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.06458303777058033</v>
-      </c>
-      <c r="J13">
-        <v>0.06912039897939969</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.0778615</v>
-      </c>
-      <c r="N13">
-        <v>14.155723</v>
-      </c>
-      <c r="O13">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P13">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q13">
-        <v>9.948554830774832</v>
-      </c>
-      <c r="R13">
-        <v>59.69132898464899</v>
-      </c>
-      <c r="S13">
-        <v>0.06409230279850447</v>
-      </c>
-      <c r="T13">
-        <v>0.06833556252702763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.286056</v>
-      </c>
-      <c r="H14">
-        <v>8.572112000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.1969329434934967</v>
-      </c>
-      <c r="J14">
-        <v>0.1405124740318818</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006601</v>
-      </c>
-      <c r="N14">
-        <v>0.019803</v>
-      </c>
-      <c r="O14">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P14">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q14">
-        <v>0.028292255656</v>
-      </c>
-      <c r="R14">
-        <v>0.169753533936</v>
-      </c>
-      <c r="S14">
-        <v>0.0001822692689743988</v>
-      </c>
-      <c r="T14">
-        <v>0.0001943364878917455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.286056</v>
-      </c>
-      <c r="H15">
-        <v>8.572112000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.1969329434934967</v>
-      </c>
-      <c r="J15">
-        <v>0.1405124740318818</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.049159</v>
-      </c>
-      <c r="O15">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P15">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q15">
-        <v>0.07023274230133333</v>
-      </c>
-      <c r="R15">
-        <v>0.4213964538080001</v>
-      </c>
-      <c r="S15">
-        <v>0.0004524655351973172</v>
-      </c>
-      <c r="T15">
-        <v>0.0004824212194248506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.286056</v>
-      </c>
-      <c r="H16">
-        <v>8.572112000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1969329434934967</v>
-      </c>
-      <c r="J16">
-        <v>0.1405124740318818</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P16">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q16">
-        <v>0.1337492348506667</v>
-      </c>
-      <c r="R16">
-        <v>0.802495409104</v>
-      </c>
-      <c r="S16">
-        <v>0.0008616624831377213</v>
-      </c>
-      <c r="T16">
-        <v>0.0009187092353159387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.286056</v>
-      </c>
-      <c r="H17">
-        <v>8.572112000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.1969329434934967</v>
-      </c>
-      <c r="J17">
-        <v>0.1405124740318818</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.0778615</v>
-      </c>
-      <c r="N17">
-        <v>14.155723</v>
-      </c>
-      <c r="O17">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P17">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q17">
-        <v>30.336110749244</v>
-      </c>
-      <c r="R17">
-        <v>121.344442996976</v>
-      </c>
-      <c r="S17">
-        <v>0.1954365462061873</v>
-      </c>
-      <c r="T17">
-        <v>0.1389170070892493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.335940666666667</v>
-      </c>
-      <c r="H18">
-        <v>7.007822</v>
-      </c>
-      <c r="I18">
-        <v>0.1073302988371658</v>
-      </c>
-      <c r="J18">
-        <v>0.1148709217512615</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.006601</v>
-      </c>
-      <c r="N18">
-        <v>0.019803</v>
-      </c>
-      <c r="O18">
-        <v>0.0009255397585646605</v>
-      </c>
-      <c r="P18">
-        <v>0.001383055057785483</v>
-      </c>
-      <c r="Q18">
-        <v>0.01541954434066667</v>
-      </c>
-      <c r="R18">
-        <v>0.138775899066</v>
-      </c>
-      <c r="S18">
-        <v>9.933845887242333E-05</v>
-      </c>
-      <c r="T18">
-        <v>0.0001588728093205627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.335940666666667</v>
-      </c>
-      <c r="H19">
-        <v>7.007822</v>
-      </c>
-      <c r="I19">
-        <v>0.1073302988371658</v>
-      </c>
-      <c r="J19">
-        <v>0.1148709217512615</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.01638633333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.049159</v>
-      </c>
-      <c r="O19">
-        <v>0.00229756142964602</v>
-      </c>
-      <c r="P19">
-        <v>0.003433298166221107</v>
-      </c>
-      <c r="Q19">
-        <v>0.03827750241088889</v>
-      </c>
-      <c r="R19">
-        <v>0.344497521698</v>
-      </c>
-      <c r="S19">
-        <v>0.0002465979548406533</v>
-      </c>
-      <c r="T19">
-        <v>0.0003943861250007344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2.335940666666667</v>
-      </c>
-      <c r="H20">
-        <v>7.007822</v>
-      </c>
-      <c r="I20">
-        <v>0.1073302988371658</v>
-      </c>
-      <c r="J20">
-        <v>0.1148709217512615</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.03120566666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.09361699999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.004375410573021653</v>
-      </c>
-      <c r="P20">
-        <v>0.006538275278730676</v>
-      </c>
-      <c r="Q20">
-        <v>0.0728945857971111</v>
-      </c>
-      <c r="R20">
-        <v>0.6560512721739999</v>
-      </c>
-      <c r="S20">
-        <v>0.000469614124337709</v>
-      </c>
-      <c r="T20">
-        <v>0.0007510577079312791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.335940666666667</v>
-      </c>
-      <c r="H21">
-        <v>7.007822</v>
-      </c>
-      <c r="I21">
-        <v>0.1073302988371658</v>
-      </c>
-      <c r="J21">
-        <v>0.1148709217512615</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.0778615</v>
-      </c>
-      <c r="N21">
-        <v>14.155723</v>
-      </c>
-      <c r="O21">
-        <v>0.9924014882387677</v>
-      </c>
-      <c r="P21">
-        <v>0.9886453714972628</v>
-      </c>
-      <c r="Q21">
-        <v>16.53346451088433</v>
-      </c>
-      <c r="R21">
-        <v>99.200787065306</v>
-      </c>
-      <c r="S21">
-        <v>0.106514748299115</v>
-      </c>
-      <c r="T21">
-        <v>0.1135666051090089</v>
+        <v>0.1005897546744193</v>
       </c>
     </row>
   </sheetData>
